--- a/data/trans_orig/P14B99-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B99-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8308DED-76FC-4BCA-AE35-CBA1153E232F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{537EE25A-29EF-4502-AD12-8900F13F8478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{714F156E-0B6B-4896-B4E0-6E1715301C42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B99FB92-22EC-469E-ACF5-73C9D771B89C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA9B8E-F003-4AC7-9FC1-848C1635E312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F96373-E378-4EA4-840B-47A61DEDD189}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14B99-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B99-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537EE25A-29EF-4502-AD12-8900F13F8478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D85B9D9-9C5B-4DD3-9E70-4DC6C151558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B99FB92-22EC-469E-ACF5-73C9D771B89C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9799A327-336B-4D42-ADBB-32D9CD60C743}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
-    <t>Población cuya otra enfermedad le limita en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población cuya otra enfermedad le limita en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,13 +74,13 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F96373-E378-4EA4-840B-47A61DEDD189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E983ADC-40D4-4466-A603-CB8D0E766974}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
